--- a/data/trans_dic/Q17F_D_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Q17F_D_R3-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,46; 27,45</t>
+          <t>7,55; 26,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,59; 27,13</t>
+          <t>6,09; 26,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,95; 21,31</t>
+          <t>4,39; 20,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 17,01</t>
+          <t>4,0; 17,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,39; 23,94</t>
+          <t>6,44; 23,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 13,66</t>
+          <t>2,26; 13,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,82; 26,24</t>
+          <t>11,42; 27,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,07; 25,66</t>
+          <t>12,55; 26,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,75; 22,3</t>
+          <t>8,28; 21,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,19; 15,19</t>
+          <t>5,38; 15,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,19; 20,97</t>
+          <t>10,07; 21,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,18; 18,69</t>
+          <t>9,12; 18,55</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,85; 29,61</t>
+          <t>10,81; 29,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,63; 23,1</t>
+          <t>6,61; 23,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,13; 21,03</t>
+          <t>6,73; 19,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,28; 36,31</t>
+          <t>13,96; 36,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,12; 26,45</t>
+          <t>14,22; 27,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 14,73</t>
+          <t>4,38; 14,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,37; 20,33</t>
+          <t>8,56; 18,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,47; 25,38</t>
+          <t>11,92; 26,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,93; 24,36</t>
+          <t>14,51; 25,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,67; 15,36</t>
+          <t>6,72; 15,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,4; 17,74</t>
+          <t>9,4; 17,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,1; 28,51</t>
+          <t>15,22; 27,87</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 14,36</t>
+          <t>1,68; 16,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,12; 22,52</t>
+          <t>6,06; 22,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 11,17</t>
+          <t>1,23; 11,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 17,15</t>
+          <t>3,5; 17,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 11,7</t>
+          <t>1,93; 11,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 12,18</t>
+          <t>3,54; 12,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 14,26</t>
+          <t>3,79; 15,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,75; 18,99</t>
+          <t>7,16; 19,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 10,27</t>
+          <t>3,03; 10,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,44; 13,34</t>
+          <t>5,79; 13,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 10,85</t>
+          <t>3,76; 11,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,34; 15,43</t>
+          <t>6,63; 15,57</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,18; 32,44</t>
+          <t>10,07; 32,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,32; 22,71</t>
+          <t>6,27; 23,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,05; 24,49</t>
+          <t>8,12; 24,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,53; 44,94</t>
+          <t>20,96; 43,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,59</t>
+          <t>0,86; 8,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,62; 16,38</t>
+          <t>4,48; 15,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,11; 24,18</t>
+          <t>10,04; 24,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,41; 24,86</t>
+          <t>4,09; 24,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,67; 13,2</t>
+          <t>4,7; 13,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,88; 15,92</t>
+          <t>6,94; 16,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,14; 22,35</t>
+          <t>10,83; 21,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,8; 27,92</t>
+          <t>7,52; 28,44</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,02; 21,91</t>
+          <t>4,11; 23,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 16,49</t>
+          <t>1,99; 16,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,99; 33,38</t>
+          <t>2,99; 30,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,27; 44,62</t>
+          <t>12,23; 44,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,95; 29,33</t>
+          <t>8,43; 30,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,29; 23,58</t>
+          <t>8,12; 23,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 18,4</t>
+          <t>2,32; 18,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,03; 32,26</t>
+          <t>11,56; 32,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,22; 22,94</t>
+          <t>8,69; 22,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,09; 18,01</t>
+          <t>6,89; 17,85</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,61; 20,1</t>
+          <t>4,9; 19,94</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,14; 32,31</t>
+          <t>14,35; 32,15</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,18</t>
+          <t>0,0; 15,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,59; 21,92</t>
+          <t>6,25; 22,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,87; 11,41</t>
+          <t>1,83; 11,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,33; 19,16</t>
+          <t>4,46; 18,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,6; 15,25</t>
+          <t>3,76; 15,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,72; 19,24</t>
+          <t>5,01; 17,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,71; 13,54</t>
+          <t>3,57; 14,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,02; 20,39</t>
+          <t>5,62; 19,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,23; 12,03</t>
+          <t>3,17; 11,92</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,37; 16,41</t>
+          <t>7,56; 16,77</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,55; 10,58</t>
+          <t>3,91; 10,16</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,06; 15,91</t>
+          <t>6,13; 16,38</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,25; 19,11</t>
+          <t>8,68; 19,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,73; 21,76</t>
+          <t>10,07; 22,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,47; 26,71</t>
+          <t>12,32; 27,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,36; 33,58</t>
+          <t>17,5; 34,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,8; 15,92</t>
+          <t>6,74; 15,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,83; 20,6</t>
+          <t>10,54; 20,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,32; 23,49</t>
+          <t>11,22; 23,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,09; 31,94</t>
+          <t>20,23; 32,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,26; 15,75</t>
+          <t>8,6; 15,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>11,64; 19,3</t>
+          <t>11,77; 19,5</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,45; 22,14</t>
+          <t>13,72; 23,21</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>20,91; 30,79</t>
+          <t>20,86; 30,77</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,43; 15,18</t>
+          <t>5,39; 15,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,4; 15,89</t>
+          <t>5,49; 16,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,36; 11,92</t>
+          <t>4,09; 11,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,38; 20,7</t>
+          <t>9,19; 20,45</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,38; 15,36</t>
+          <t>6,13; 14,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,44; 15,39</t>
+          <t>6,25; 14,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,45; 15,09</t>
+          <t>6,88; 15,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,84; 26,1</t>
+          <t>16,38; 26,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,03; 13,41</t>
+          <t>6,6; 13,25</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7,17; 13,84</t>
+          <t>6,97; 13,65</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>6,44; 11,92</t>
+          <t>6,38; 12,22</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>14,66; 21,86</t>
+          <t>14,77; 21,82</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,69; 15,14</t>
+          <t>9,8; 14,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,15; 15,24</t>
+          <t>10,18; 15,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,61; 13,21</t>
+          <t>8,78; 13,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,48; 21,56</t>
+          <t>15,31; 21,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,75; 12,85</t>
+          <t>8,83; 12,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,94; 12,56</t>
+          <t>8,62; 12,44</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,61; 14,84</t>
+          <t>10,69; 14,64</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>13,8; 21,41</t>
+          <t>14,3; 21,22</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,88; 13,09</t>
+          <t>9,76; 12,96</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>9,92; 12,93</t>
+          <t>9,95; 13,12</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>10,31; 13,39</t>
+          <t>10,23; 13,43</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>15,13; 20,33</t>
+          <t>15,51; 20,45</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable (Cuartil IV de 2023: &gt;15 días)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7350</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8187</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7490</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6016</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8326</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5943</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>17000</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13366</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>15676</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>14130</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>24490</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>19382</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3593; 12385</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3464; 14875</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2976; 13649</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2743; 12044</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3993; 14263</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2045; 11866</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10702; 26062</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9233; 19234</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>9067; 23585</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7941; 22563</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16262; 34570</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12964; 26381</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16320</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12021</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12807</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>18070</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>25930</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11088</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>24044</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15881</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>23109</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>36852</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>33951</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9334; 25102</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5854; 20759</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6974; 20659</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>10472; 27109</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>18803; 36818</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5955; 19957</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>14984; 32972</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10451; 22951</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>31721; 55051</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15090; 35321</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>26207; 49253</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>24766; 45344</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2977</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11095</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3363</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5055</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5687</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10028</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7621</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8389</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8664</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>21124</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>10984</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13444</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>915; 8862</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5174; 19603</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>845; 7843</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2166; 11026</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1907; 11574</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4996; 17267</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3760; 14966</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4973; 13369</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4635; 15572</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13116; 31368</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6329; 18740</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8706; 20453</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9259</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9365</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>12996</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>20311</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3674</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10411</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>21490</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>21147</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>12933</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>19776</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>34487</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>41458</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4810; 15437</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4256; 16029</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6903; 20726</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>13682; 28654</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>957; 9494</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5049; 17713</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>13237; 32659</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6724; 41065</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>7511; 20771</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>12534; 29786</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>23476; 46837</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>17266; 65330</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4193</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3180</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3426</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4765</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>10601</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13211</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3940</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5219</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>14794</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>16390</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>7366</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>9985</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1617; 9353</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1014; 8295</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>824; 8358</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2231; 8097</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5343; 19310</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7307; 21015</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1110; 8995</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3041; 8432</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8934; 23628</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>9725; 25172</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3688; 15014</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6393; 14319</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10054</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5546</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5405</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>6210</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>11505</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>9780</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6116</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>8232</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>21559</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>15327</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>11520</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7119</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4855; 17102</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1943; 11795</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2360; 9744</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2991; 12655</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>5367; 18912</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4618; 18454</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>3280; 11664</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>3982; 14961</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>13959; 30982</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>9209; 23927</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>6817; 18225</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>18303</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>25050</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>27419</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>31895</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>21519</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>32879</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>27886</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>46655</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>39822</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>57929</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>55305</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>78550</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>11932; 26606</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>16523; 36378</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>18116; 39683</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>22233; 43774</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>13744; 31928</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>22763; 44811</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>18981; 39520</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>36410; 57719</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>29350; 54112</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>44705; 74080</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>43366; 73361</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>64056; 94472</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>13954</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>14928</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>15370</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>19135</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>21513</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>21817</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>27111</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>40318</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>35468</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>36745</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>42481</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>59453</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>7885; 23152</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>8483; 25046</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>8610; 23514</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>12624; 28103</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>13276; 31068</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>13404; 31570</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>17948; 40171</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>31387; 50577</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>23949; 48102</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>25733; 50376</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>30052; 57581</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>48588; 71781</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>74377</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>93880</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>88417</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>110653</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>103460</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>116882</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>138873</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>157091</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>177837</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>210762</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>227291</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>267744</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>59288; 90084</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>75938; 113125</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>71659; 109319</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>92863; 129600</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>85481; 123824</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>95519; 137801</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>118387; 162123</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>121737; 180635</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>153636; 203874</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>184530; 243251</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>196733; 258302</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>226106; 298147</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>